--- a/ky/downloads/data-excel/11.6.1.1.xlsx
+++ b/ky/downloads/data-excel/11.6.1.1.xlsx
@@ -491,18 +491,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +522,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -541,8 +539,9 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -591,8 +590,11 @@
       <c r="P3" s="8">
         <v>2022</v>
       </c>
+      <c r="Q3" s="8">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -644,8 +646,11 @@
         <f>P5/P6*1000</f>
         <v>212.61804618681055</v>
       </c>
+      <c r="Q4" s="14">
+        <v>279.01945525291825</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -694,8 +699,11 @@
       <c r="P5" s="15">
         <v>1339.6</v>
       </c>
+      <c r="Q5" s="15">
+        <v>1792.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
@@ -743,6 +751,9 @@
       </c>
       <c r="P6" s="16">
         <v>6300.5</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>6425</v>
       </c>
     </row>
   </sheetData>
